--- a/biology/Microbiologie/Dendrocometidae/Dendrocometidae.xlsx
+++ b/biology/Microbiologie/Dendrocometidae/Dendrocometidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendrocometidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Dendrocometes, dérivé du grec δένδρων / dendron, « arbre », et κομήτης / komítis, « chevelu », en référence à la structure de l'organisme dont les bras ramifiés font penser à des arbres échevelés.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Leuckart, en 1855, décrit ainsi le genre type Dendrocometes : 
-« Dendrocometes paradoxus n. gen. et n. sp. Corps recouvert d'une peau rigide, en forme de lentille et muni de cinq bras qui se ramifient à leur extrémité. Bouche manquante[1]. »
-Selon Gary Calkins, les espèces de la famille des Dendrocometidae ont des structures spécialisés appelées « bras », qui peuvent ou non être ramifiées. Ce sont des organismes qui vivent attachés et qui ont des tentacules d'un seul type. Le genre Dendrocometes a des « bras » ramifiés, chaque branche portant une ventouse[2].
+« Dendrocometes paradoxus n. gen. et n. sp. Corps recouvert d'une peau rigide, en forme de lentille et muni de cinq bras qui se ramifient à leur extrémité. Bouche manquante. »
+Selon Gary Calkins, les espèces de la famille des Dendrocometidae ont des structures spécialisés appelées « bras », qui peuvent ou non être ramifiées. Ce sont des organismes qui vivent attachés et qui ont des tentacules d'un seul type. Le genre Dendrocometes a des « bras » ramifiés, chaque branche portant une ventouse.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrocometes vit en parasite sur les lamelles branchiales des crustacés de l'espèce Gammarus pulex[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrocometes vit en parasite sur les lamelles branchiales des crustacés de l'espèce Gammarus pulex.
 </t>
         </is>
       </c>
@@ -606,16 +624,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 mai 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 mai 2023) :
 Dendrocometes Stein, 1852  genre type
 Espèce type : Dendrocometes paradoxus Stein, 1852
 Dendrocometides Swarczewsky, 1928
 Discosomatella Corliss, 1960
 Niscometes  Jankowski, 1987
 Stylophrya Swarczewsky, 1928
-Selon l'IRMNG  (11 mai 2023)[4] et The Taxonomicon  (11 mai 2023)[5] :
+Selon l'IRMNG  (11 mai 2023) et The Taxonomicon  (11 mai 2023) :
 Cometodendron Swarczewsky, 1928
 Dendrocometes Stein, 1852
 Dendrocometides Swarczewsky, 1928
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dendrocometidae Haeckel, 1866[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dendrocometidae Haeckel, 1866.
 </t>
         </is>
       </c>
